--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1669,6 +1669,31 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
+</t>
+  </si>
+  <si>
+    <t>testresult</t>
+  </si>
+  <si>
+    <t>Vaccination Test Results Section</t>
+  </si>
+  <si>
+    <t>Vaccination Test Results Section lists the relvant test results received by the patient</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="30954-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTest|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDiagnosticReport|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCSpecimen|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCProcedure)
 </t>
   </si>
 </sst>
@@ -1989,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8802,7 +8827,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>79</v>
@@ -10406,7 +10431,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>89</v>
@@ -12000,8 +12025,1614 @@
         <v>77</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12011,7 +13642,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1428,13 +1428,6 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t>value:code}
-type:focus}</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
 cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
@@ -1645,56 +1638,6 @@
   </si>
   <si>
     <t>.component.section</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section lists the relvant vaccinations received by the patient</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="11369-6"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
-</t>
-  </si>
-  <si>
-    <t>testresult</t>
-  </si>
-  <si>
-    <t>Vaccination Test Results Section</t>
-  </si>
-  <si>
-    <t>Vaccination Test Results Section lists the relvant test results received by the patient</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="30954-2"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTest|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDiagnosticReport|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCSpecimen|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCProcedure)
-</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8887,14 +8830,16 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>453</v>
@@ -8909,16 +8854,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8929,7 +8874,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9041,7 +8986,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9155,7 +9100,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9271,11 +9216,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9297,16 +9242,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9355,7 +9300,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9387,7 +9332,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9413,16 +9358,16 @@
         <v>179</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9450,10 +9395,10 @@
         <v>245</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9471,7 +9416,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9503,7 +9448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9529,10 +9474,10 @@
         <v>309</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
@@ -9585,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9617,7 +9562,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9643,13 +9588,13 @@
         <v>449</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9699,7 +9644,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9720,7 +9665,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9731,7 +9676,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9757,13 +9702,13 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9813,7 +9758,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9822,7 +9767,7 @@
         <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>101</v>
@@ -9831,10 +9776,10 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9845,7 +9790,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9871,16 +9816,16 @@
         <v>109</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9908,10 +9853,10 @@
         <v>173</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9929,7 +9874,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9947,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>161</v>
@@ -9961,7 +9906,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9987,16 +9932,16 @@
         <v>179</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10024,10 +9969,10 @@
         <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10045,7 +9990,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10063,7 +10008,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>161</v>
@@ -10077,7 +10022,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10103,13 +10048,13 @@
         <v>449</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10159,7 +10104,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10168,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10177,10 +10122,10 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10191,7 +10136,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10217,16 +10162,16 @@
         <v>179</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10254,10 +10199,10 @@
         <v>113</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10275,7 +10220,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10284,7 +10229,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10293,7 +10238,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>161</v>
@@ -10307,7 +10252,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10333,13 +10278,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10389,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10398,7 +10343,7 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>101</v>
@@ -10407,3232 +10352,20 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13642,7 +10375,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,219 +293,223 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>Certificate Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>Certificate Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1966,44 +1970,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3297,13 +3301,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3354,7 +3358,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3372,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3386,7 +3390,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3415,7 +3419,7 @@
         <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>138</v>
@@ -3456,19 +3460,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3486,7 +3490,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3500,7 +3504,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3526,16 +3530,16 @@
         <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3560,13 +3564,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3584,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3602,7 +3606,7 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3616,7 +3620,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3639,19 +3643,19 @@
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3676,13 +3680,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3700,7 +3704,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3718,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3732,7 +3736,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3758,16 +3762,16 @@
         <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3780,7 +3784,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3816,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3834,7 +3838,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3848,7 +3852,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3871,16 +3875,16 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3894,7 +3898,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3930,7 +3934,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3948,7 +3952,7 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3962,7 +3966,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3985,13 +3989,13 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4042,7 +4046,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4060,7 +4064,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4074,7 +4078,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4097,16 +4101,16 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4156,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4174,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4188,7 +4192,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4214,16 +4218,16 @@
         <v>109</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4248,13 +4252,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4272,7 +4276,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>89</v>
@@ -4287,24 +4291,24 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4327,19 +4331,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4349,7 +4353,7 @@
         <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -4367,10 +4371,10 @@
         <v>113</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4388,7 +4392,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>89</v>
@@ -4403,24 +4407,24 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4443,19 +4447,19 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4480,13 +4484,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4504,7 +4508,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4519,24 +4523,24 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4559,19 +4563,19 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4620,7 +4624,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4638,21 +4642,21 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4675,13 +4679,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4732,7 +4736,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4750,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4793,7 +4797,7 @@
         <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>138</v>
@@ -4834,19 +4838,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4864,7 +4868,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4878,7 +4882,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4901,16 +4905,16 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4960,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4969,7 +4973,7 @@
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>101</v>
@@ -4992,7 +4996,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5018,13 +5022,13 @@
         <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5050,13 +5054,13 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -5074,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5106,7 +5110,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5132,13 +5136,13 @@
         <v>148</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5188,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5206,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5224,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5243,16 +5247,16 @@
         <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5302,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5357,17 +5361,17 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5416,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5431,24 +5435,24 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5471,19 +5475,19 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5532,7 +5536,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>89</v>
@@ -5547,24 +5551,24 @@
         <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5587,17 +5591,17 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5646,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>89</v>
@@ -5661,24 +5665,24 @@
         <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5701,16 +5705,16 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5721,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5778,13 +5782,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5792,7 +5796,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5818,13 +5822,13 @@
         <v>109</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5850,13 +5854,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5874,7 +5878,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5892,13 +5896,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5906,7 +5910,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5929,19 +5933,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5990,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6008,13 +6012,13 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,13 +6049,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6124,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6163,7 +6167,7 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>138</v>
@@ -6216,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6248,11 +6252,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6274,10 +6278,10 @@
         <v>135</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>138</v>
@@ -6332,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6364,7 +6368,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6390,14 +6394,14 @@
         <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6407,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -6422,13 +6426,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6446,7 +6450,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>89</v>
@@ -6464,10 +6468,10 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6478,7 +6482,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6501,17 +6505,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6560,7 +6564,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6578,10 +6582,10 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6592,14 +6596,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>89</v>
@@ -6617,17 +6621,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6676,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6694,21 +6698,21 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6731,19 +6735,19 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6792,7 +6796,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6810,13 +6814,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6824,7 +6828,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6847,16 +6851,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6906,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6924,13 +6928,13 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6938,7 +6942,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6961,13 +6965,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7018,7 +7022,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7040,7 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7050,7 +7054,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7079,7 +7083,7 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>138</v>
@@ -7132,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7150,7 +7154,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7164,11 +7168,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7190,10 +7194,10 @@
         <v>135</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>138</v>
@@ -7248,7 +7252,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7280,7 +7284,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7306,13 +7310,13 @@
         <v>109</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7338,13 +7342,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7362,7 +7366,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>89</v>
@@ -7380,13 +7384,13 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7394,7 +7398,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7417,13 +7421,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7474,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>89</v>
@@ -7492,13 +7496,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7506,7 +7510,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7529,19 +7533,19 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7590,7 +7594,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7608,13 +7612,13 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7626,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7645,13 +7649,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7702,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7720,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7734,7 +7738,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7763,7 +7767,7 @@
         <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>138</v>
@@ -7816,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7834,7 +7838,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7848,11 +7852,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7874,10 +7878,10 @@
         <v>135</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>138</v>
@@ -7932,7 +7936,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7964,7 +7968,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7987,16 +7991,16 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8022,13 +8026,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -8046,7 +8050,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8064,13 +8068,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8078,7 +8082,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8101,13 +8105,13 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8158,7 +8162,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8176,13 +8180,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8190,7 +8194,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8213,13 +8217,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8270,7 +8274,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8288,7 +8292,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8302,7 +8306,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8331,7 +8335,7 @@
         <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>138</v>
@@ -8372,19 +8376,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8402,7 +8406,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8416,14 +8420,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>78</v>
@@ -8441,16 +8445,16 @@
         <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8500,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8509,7 +8513,7 @@
         <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>101</v>
@@ -8518,7 +8522,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8532,14 +8536,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>78</v>
@@ -8557,23 +8561,23 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>77</v>
@@ -8618,7 +8622,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8627,7 +8631,7 @@
         <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>101</v>
@@ -8636,7 +8640,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8650,7 +8654,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8673,13 +8677,13 @@
         <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8730,7 +8734,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8748,10 +8752,10 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8762,7 +8766,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8785,13 +8789,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8842,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8854,16 +8858,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8874,7 +8878,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8897,13 +8901,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8954,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8976,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8986,7 +8990,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9015,7 +9019,7 @@
         <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>138</v>
@@ -9068,7 +9072,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9086,7 +9090,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9100,11 +9104,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9126,10 +9130,10 @@
         <v>135</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>138</v>
@@ -9184,7 +9188,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9216,11 +9220,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9239,19 +9243,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9300,7 +9304,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9318,10 +9322,10 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9332,7 +9336,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9355,19 +9359,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9392,13 +9396,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9416,7 +9420,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9434,10 +9438,10 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9448,7 +9452,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9471,17 +9475,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9534,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9548,21 +9552,21 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9585,16 +9589,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9644,7 +9648,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9665,7 +9669,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9676,7 +9680,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9702,13 +9706,13 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9758,7 +9762,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9767,7 +9771,7 @@
         <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>101</v>
@@ -9776,10 +9780,10 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9794,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9816,16 +9820,16 @@
         <v>109</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9850,13 +9854,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9874,7 +9878,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9892,21 +9896,21 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9929,19 +9933,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9969,10 +9973,10 @@
         <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9990,7 +9994,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10008,10 +10012,10 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10022,7 +10026,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10045,16 +10049,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10104,7 +10108,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10113,7 +10117,7 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10122,10 +10126,10 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10136,7 +10140,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10159,19 +10163,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10199,10 +10203,10 @@
         <v>113</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10220,7 +10224,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10229,7 +10233,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10238,10 +10242,10 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10252,7 +10256,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10278,13 +10282,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10334,7 +10338,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10343,7 +10347,7 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>101</v>
@@ -10352,10 +10356,10 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2230,19 +2226,19 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -2250,7 +2246,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2261,28 +2257,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2332,13 +2328,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2364,7 +2360,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2375,25 +2371,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2444,19 +2440,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2476,7 +2472,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2487,28 +2483,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2558,19 +2554,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2590,7 +2586,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2601,7 +2597,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2613,16 +2609,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2648,43 +2644,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2704,18 +2700,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2727,16 +2723,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2786,25 +2782,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2818,11 +2814,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2841,16 +2837,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2900,7 +2896,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2918,7 +2914,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2932,11 +2928,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2955,16 +2951,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3014,7 +3010,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -3026,13 +3022,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -3046,11 +3042,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3063,25 +3059,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3130,7 +3126,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3142,13 +3138,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3162,41 +3158,41 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3246,39 +3242,39 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3289,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3301,13 +3297,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3358,25 +3354,25 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3390,11 +3386,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3413,16 +3409,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3460,19 +3456,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3484,13 +3480,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3504,7 +3500,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3515,31 +3511,31 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3564,49 +3560,49 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3620,7 +3616,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3631,31 +3627,31 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3680,49 +3676,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3736,7 +3732,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3744,34 +3740,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3784,61 +3780,61 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3852,7 +3848,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3860,31 +3856,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3898,61 +3894,61 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3966,7 +3962,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3977,25 +3973,25 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4046,25 +4042,25 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4078,7 +4074,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4089,28 +4085,28 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4160,25 +4156,25 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4192,7 +4188,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4200,34 +4196,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4252,63 +4248,63 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4316,34 +4312,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4353,78 +4349,78 @@
         <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4444,22 +4440,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4484,14 +4480,14 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4520,27 +4516,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4548,34 +4544,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4624,39 +4620,39 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4667,7 +4663,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4679,13 +4675,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4736,25 +4732,25 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4768,11 +4764,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4791,16 +4787,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4838,19 +4834,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4858,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4882,7 +4878,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4890,31 +4886,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4964,25 +4960,25 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4996,7 +4992,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5007,28 +5003,28 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5054,49 +5050,49 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5121,28 +5117,28 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5192,25 +5188,25 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5224,7 +5220,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5235,28 +5231,28 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5306,25 +5302,25 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5349,29 +5345,29 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5420,39 +5416,39 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5460,34 +5456,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5536,39 +5532,39 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5576,7 +5572,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>79</v>
@@ -5588,20 +5584,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5650,10 +5646,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5662,27 +5658,27 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5690,31 +5686,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5725,70 +5721,70 @@
         <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5796,7 +5792,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5807,28 +5803,28 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5854,55 +5850,55 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5910,7 +5906,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5918,14 +5914,14 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5933,19 +5929,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5994,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6006,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6026,7 +6022,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6037,7 +6033,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6049,13 +6045,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6106,25 +6102,25 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6138,11 +6134,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6161,16 +6157,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6220,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6232,13 +6228,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6252,11 +6248,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6269,25 +6265,25 @@
         <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6336,7 +6332,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6348,13 +6344,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6368,7 +6364,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6376,10 +6372,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6391,17 +6387,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6411,67 +6407,67 @@
         <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6482,7 +6478,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6493,7 +6489,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6505,17 +6501,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6564,28 +6560,28 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6596,42 +6592,42 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="E41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J41" t="s" s="2">
+      <c r="K41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6680,39 +6676,39 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6723,31 +6719,31 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6796,31 +6792,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6828,7 +6824,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6851,16 +6847,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6910,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6922,19 +6918,19 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6942,7 +6938,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6953,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6965,13 +6961,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7022,25 +7018,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7054,11 +7050,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7077,16 +7073,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7136,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7148,13 +7144,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7168,11 +7164,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7185,25 +7181,25 @@
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7252,7 +7248,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7264,13 +7260,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7284,7 +7280,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7292,10 +7288,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7307,16 +7303,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7342,55 +7338,55 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7398,7 +7394,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7406,10 +7402,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7421,13 +7417,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7478,31 +7474,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7510,7 +7506,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7521,31 +7517,31 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7594,7 +7590,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7606,19 +7602,19 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7626,7 +7622,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7637,7 +7633,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7649,13 +7645,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7706,25 +7702,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7738,11 +7734,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7761,16 +7757,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7820,7 +7816,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7832,13 +7828,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7852,11 +7848,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7869,25 +7865,25 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7936,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7948,13 +7944,13 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7968,7 +7964,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7988,19 +7984,19 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8026,14 +8022,14 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8062,19 +8058,19 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8082,7 +8078,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8093,25 +8089,25 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8162,31 +8158,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8194,7 +8190,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8205,7 +8201,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8217,13 +8213,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8274,25 +8270,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8306,11 +8302,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8329,16 +8325,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8376,19 +8372,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB56" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB56" t="s" s="2">
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
+      <c r="AE56" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8400,13 +8396,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8420,41 +8416,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="E57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8504,25 +8500,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8536,111 +8532,111 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="E58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8654,7 +8650,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8674,16 +8670,16 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8734,7 +8730,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8746,16 +8742,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8766,7 +8762,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8789,13 +8785,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8846,7 +8842,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8858,16 +8854,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8878,7 +8874,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8889,7 +8885,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8901,13 +8897,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8958,25 +8954,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8990,11 +8986,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9013,16 +9009,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9072,7 +9068,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9084,13 +9080,13 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9104,11 +9100,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9121,25 +9117,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9188,7 +9184,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9200,13 +9196,13 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9220,18 +9216,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9243,19 +9239,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9304,28 +9300,28 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9336,7 +9332,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9347,7 +9343,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9359,19 +9355,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9396,14 +9392,14 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9420,28 +9416,28 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9452,7 +9448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9475,17 +9471,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9534,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9546,27 +9542,27 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9577,7 +9573,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9589,16 +9585,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9648,19 +9644,19 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
@@ -9669,7 +9665,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9680,7 +9676,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9691,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9703,16 +9699,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9762,28 +9758,28 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AL68" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9794,7 +9790,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9805,7 +9801,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9817,19 +9813,19 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9854,63 +9850,63 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9921,7 +9917,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9933,19 +9929,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9970,52 +9966,52 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AL70" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10026,7 +10022,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10049,16 +10045,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10108,7 +10104,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10117,19 +10113,19 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10140,7 +10136,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10151,7 +10147,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10163,19 +10159,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10200,52 +10196,52 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AL72" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10256,7 +10252,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10282,13 +10278,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10338,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10347,19 +10343,19 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Describes the logical structure for a Digital Documentation of COVID-19 Certificates 
-(DDCC).  </t>
+    <t>Describes the logical structure for a Digital Documentation of COVID-19 
+Certificates (DDCC).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
